--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1657</v>
+        <v>1681</v>
       </c>
       <c r="D2" t="n">
-        <v>2688211</v>
+        <v>2803862</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7356</v>
+        <v>7502</v>
       </c>
       <c r="D3" t="n">
-        <v>13035749</v>
+        <v>14032311</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2692</v>
+        <v>2758</v>
       </c>
       <c r="D4" t="n">
-        <v>5244753</v>
+        <v>5799694</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D5" t="n">
-        <v>1335214</v>
+        <v>1460346</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
-        <v>519206</v>
+        <v>579206</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>52138</v>
+        <v>82138</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>998</v>
+        <v>1033</v>
       </c>
       <c r="D8" t="n">
-        <v>1469157</v>
+        <v>1589363</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1512</v>
+        <v>1534</v>
       </c>
       <c r="D9" t="n">
-        <v>2474923</v>
+        <v>2604822</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4526</v>
+        <v>4625</v>
       </c>
       <c r="D10" t="n">
-        <v>7634638</v>
+        <v>8312665</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1203</v>
+        <v>1229</v>
       </c>
       <c r="D11" t="n">
-        <v>2272308</v>
+        <v>2499029</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D12" t="n">
-        <v>569979</v>
+        <v>609979</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" t="n">
-        <v>177251</v>
+        <v>197251</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2281</v>
+        <v>2313</v>
       </c>
       <c r="D15" t="n">
-        <v>3033023</v>
+        <v>3135001</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3271</v>
+        <v>3330</v>
       </c>
       <c r="D16" t="n">
-        <v>5585563</v>
+        <v>5925650</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5338</v>
+        <v>5446</v>
       </c>
       <c r="D17" t="n">
-        <v>9318539</v>
+        <v>10029352</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1415</v>
+        <v>1456</v>
       </c>
       <c r="D18" t="n">
-        <v>2774688</v>
+        <v>3128236</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D19" t="n">
-        <v>625854</v>
+        <v>679520</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>58446</v>
+        <v>65726</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2116</v>
+        <v>2135</v>
       </c>
       <c r="D22" t="n">
-        <v>2913538</v>
+        <v>2984266</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="D23" t="n">
-        <v>1272924</v>
+        <v>1323444</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2402</v>
+        <v>2442</v>
       </c>
       <c r="D24" t="n">
-        <v>3931448</v>
+        <v>4189122</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D25" t="n">
-        <v>1156135</v>
+        <v>1176135</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D26" t="n">
-        <v>273344</v>
+        <v>284844</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="n">
-        <v>107671</v>
+        <v>117671</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2388</v>
+        <v>2401</v>
       </c>
       <c r="D29" t="n">
-        <v>3332657</v>
+        <v>3357063</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4082</v>
+        <v>4168</v>
       </c>
       <c r="D30" t="n">
-        <v>6895513</v>
+        <v>7360225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8118</v>
+        <v>8280</v>
       </c>
       <c r="D31" t="n">
-        <v>14323726</v>
+        <v>15425783</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2522</v>
+        <v>2573</v>
       </c>
       <c r="D32" t="n">
-        <v>4768936</v>
+        <v>5177984</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D33" t="n">
-        <v>1228235</v>
+        <v>1319735</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D34" t="n">
-        <v>421199</v>
+        <v>461865</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3067</v>
+        <v>3114</v>
       </c>
       <c r="D36" t="n">
-        <v>4103508</v>
+        <v>4247995</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="D37" t="n">
-        <v>2612828</v>
+        <v>2705485</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3461</v>
+        <v>3510</v>
       </c>
       <c r="D38" t="n">
-        <v>5938463</v>
+        <v>6218054</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="D39" t="n">
-        <v>1774647</v>
+        <v>1880322</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D40" t="n">
-        <v>494062</v>
+        <v>544062</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
-        <v>91027</v>
+        <v>101027</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1619</v>
+        <v>1641</v>
       </c>
       <c r="D43" t="n">
-        <v>2240854</v>
+        <v>2310938</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5159</v>
+        <v>5222</v>
       </c>
       <c r="D44" t="n">
-        <v>8913650</v>
+        <v>9237652</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11492</v>
+        <v>11718</v>
       </c>
       <c r="D45" t="n">
-        <v>21199321</v>
+        <v>22870081</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4808</v>
+        <v>4918</v>
       </c>
       <c r="D46" t="n">
-        <v>9913961</v>
+        <v>10863051</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1634</v>
+        <v>1669</v>
       </c>
       <c r="D47" t="n">
-        <v>3731801</v>
+        <v>4051891</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="D48" t="n">
-        <v>1868137</v>
+        <v>2040969</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D49" t="n">
-        <v>446948</v>
+        <v>498448</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5947</v>
+        <v>6008</v>
       </c>
       <c r="D50" t="n">
-        <v>8632940</v>
+        <v>8823864</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>7471</v>
+        <v>7620</v>
       </c>
       <c r="D51" t="n">
-        <v>12722731</v>
+        <v>13514392</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17323</v>
+        <v>17645</v>
       </c>
       <c r="D52" t="n">
-        <v>31839803</v>
+        <v>34202117</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5998</v>
+        <v>6110</v>
       </c>
       <c r="D53" t="n">
-        <v>12172081</v>
+        <v>13088048</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1736</v>
+        <v>1785</v>
       </c>
       <c r="D54" t="n">
-        <v>3819232</v>
+        <v>4252181</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="D55" t="n">
-        <v>1374485</v>
+        <v>1545486</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3022,10 +3022,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D56" t="n">
-        <v>265776</v>
+        <v>326442</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6738</v>
+        <v>6832</v>
       </c>
       <c r="D58" t="n">
-        <v>9785547</v>
+        <v>10098230</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4103</v>
+        <v>4170</v>
       </c>
       <c r="D59" t="n">
-        <v>6833812</v>
+        <v>7217259</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10158</v>
+        <v>10363</v>
       </c>
       <c r="D60" t="n">
-        <v>18353831</v>
+        <v>19804622</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3227</v>
+        <v>3293</v>
       </c>
       <c r="D61" t="n">
-        <v>6386384</v>
+        <v>6900725</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="D62" t="n">
-        <v>1967838</v>
+        <v>2128837</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D63" t="n">
-        <v>657057</v>
+        <v>697057</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>94994</v>
+        <v>104994</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4139</v>
+        <v>4213</v>
       </c>
       <c r="D65" t="n">
-        <v>5724525</v>
+        <v>5953758</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3419</v>
+        <v>3456</v>
       </c>
       <c r="D66" t="n">
-        <v>5656318</v>
+        <v>5876870</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8972</v>
+        <v>9159</v>
       </c>
       <c r="D67" t="n">
-        <v>15949465</v>
+        <v>17310781</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3131</v>
+        <v>3202</v>
       </c>
       <c r="D68" t="n">
-        <v>6118461</v>
+        <v>6726728</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>898</v>
+        <v>923</v>
       </c>
       <c r="D69" t="n">
-        <v>1821793</v>
+        <v>2057914</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D70" t="n">
-        <v>696784</v>
+        <v>760367</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D71" t="n">
-        <v>119485</v>
+        <v>159808</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3667</v>
+        <v>3724</v>
       </c>
       <c r="D72" t="n">
-        <v>5126808</v>
+        <v>5297624</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>11894</v>
+        <v>12067</v>
       </c>
       <c r="D73" t="n">
-        <v>20403559</v>
+        <v>21372654</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>29123</v>
+        <v>29728</v>
       </c>
       <c r="D74" t="n">
-        <v>54536986</v>
+        <v>59005011</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10378</v>
+        <v>10626</v>
       </c>
       <c r="D75" t="n">
-        <v>22027345</v>
+        <v>24129455</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3173</v>
+        <v>3256</v>
       </c>
       <c r="D76" t="n">
-        <v>7431769</v>
+        <v>8132756</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>901</v>
+        <v>937</v>
       </c>
       <c r="D77" t="n">
-        <v>2826129</v>
+        <v>3144560</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D78" t="n">
-        <v>562105</v>
+        <v>638122</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>26323</v>
+        <v>36323</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9329</v>
+        <v>9470</v>
       </c>
       <c r="D83" t="n">
-        <v>13806971</v>
+        <v>14314234</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3572</v>
+        <v>3633</v>
       </c>
       <c r="D84" t="n">
-        <v>6223698</v>
+        <v>6582279</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8547</v>
+        <v>8713</v>
       </c>
       <c r="D85" t="n">
-        <v>16060616</v>
+        <v>17264284</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4072</v>
+        <v>4165</v>
       </c>
       <c r="D86" t="n">
-        <v>9257212</v>
+        <v>10080677</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1559</v>
+        <v>1592</v>
       </c>
       <c r="D87" t="n">
-        <v>4023375</v>
+        <v>4337202</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4558,10 +4558,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="D88" t="n">
-        <v>2144028</v>
+        <v>2408868</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D89" t="n">
-        <v>482862</v>
+        <v>524362</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7778</v>
+        <v>7847</v>
       </c>
       <c r="D92" t="n">
-        <v>11578823</v>
+        <v>11821066</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2496</v>
+        <v>2537</v>
       </c>
       <c r="D93" t="n">
-        <v>4288046</v>
+        <v>4474672</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6332</v>
+        <v>6459</v>
       </c>
       <c r="D94" t="n">
-        <v>11465348</v>
+        <v>12367059</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2293</v>
+        <v>2343</v>
       </c>
       <c r="D95" t="n">
-        <v>4546864</v>
+        <v>4955206</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="D96" t="n">
-        <v>1494508</v>
+        <v>1763821</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D97" t="n">
-        <v>487448</v>
+        <v>587448</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D98" t="n">
-        <v>168494</v>
+        <v>209994</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2377</v>
+        <v>2416</v>
       </c>
       <c r="D99" t="n">
-        <v>3305385</v>
+        <v>3438346</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2156</v>
+        <v>2200</v>
       </c>
       <c r="D100" t="n">
-        <v>3522414</v>
+        <v>3783934</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5644</v>
+        <v>5747</v>
       </c>
       <c r="D101" t="n">
-        <v>9583472</v>
+        <v>10306545</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2005</v>
+        <v>2052</v>
       </c>
       <c r="D102" t="n">
-        <v>3676073</v>
+        <v>4081450</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D103" t="n">
-        <v>1163972</v>
+        <v>1285304</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D104" t="n">
-        <v>426717</v>
+        <v>541883</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
-        <v>84118</v>
+        <v>114118</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1833</v>
+        <v>1867</v>
       </c>
       <c r="D107" t="n">
-        <v>2534946</v>
+        <v>2651541</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5518,10 +5518,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="D108" t="n">
-        <v>1399778</v>
+        <v>1518254</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2160</v>
+        <v>2194</v>
       </c>
       <c r="D109" t="n">
-        <v>3714830</v>
+        <v>3959759</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D110" t="n">
-        <v>1162900</v>
+        <v>1253617</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D111" t="n">
-        <v>366994</v>
+        <v>408494</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D112" t="n">
-        <v>99930</v>
+        <v>118018</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="D114" t="n">
-        <v>1349109</v>
+        <v>1423362</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1412</v>
+        <v>1432</v>
       </c>
       <c r="D115" t="n">
-        <v>2214233</v>
+        <v>2323575</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3368</v>
+        <v>3425</v>
       </c>
       <c r="D116" t="n">
-        <v>5735167</v>
+        <v>6113300</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="D117" t="n">
-        <v>1846533</v>
+        <v>2011864</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D118" t="n">
-        <v>623460</v>
+        <v>685626</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D119" t="n">
-        <v>148157</v>
+        <v>168157</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1199</v>
+        <v>1217</v>
       </c>
       <c r="D121" t="n">
-        <v>1674543</v>
+        <v>1743647</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="D122" t="n">
-        <v>1587584</v>
+        <v>1705381</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2406</v>
+        <v>2455</v>
       </c>
       <c r="D123" t="n">
-        <v>4040633</v>
+        <v>4346588</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="D124" t="n">
-        <v>1311904</v>
+        <v>1426706</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D125" t="n">
-        <v>280228</v>
+        <v>300228</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D126" t="n">
-        <v>146966</v>
+        <v>175086</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>22832</v>
+        <v>32832</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="D128" t="n">
-        <v>1488212</v>
+        <v>1560690</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2609</v>
+        <v>2673</v>
       </c>
       <c r="D129" t="n">
-        <v>4510167</v>
+        <v>4824739</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7410</v>
+        <v>7548</v>
       </c>
       <c r="D130" t="n">
-        <v>13178391</v>
+        <v>14074160</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2248</v>
+        <v>2292</v>
       </c>
       <c r="D131" t="n">
-        <v>4485374</v>
+        <v>4851916</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D132" t="n">
-        <v>1006559</v>
+        <v>1048059</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D133" t="n">
-        <v>434752</v>
+        <v>464752</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D134" t="n">
-        <v>56654</v>
+        <v>66654</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3085</v>
+        <v>3133</v>
       </c>
       <c r="D135" t="n">
-        <v>4451854</v>
+        <v>4626228</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D136" t="n">
-        <v>815331</v>
+        <v>857923</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1462</v>
+        <v>1504</v>
       </c>
       <c r="D137" t="n">
-        <v>2587108</v>
+        <v>2933282</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D138" t="n">
-        <v>975658</v>
+        <v>1068246</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D139" t="n">
-        <v>271121</v>
+        <v>301121</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D140" t="n">
-        <v>102774</v>
+        <v>112774</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D141" t="n">
-        <v>581152</v>
+        <v>622820</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="D142" t="n">
-        <v>2279345</v>
+        <v>2402552</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4081</v>
+        <v>4158</v>
       </c>
       <c r="D143" t="n">
-        <v>7090620</v>
+        <v>7622483</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1179</v>
+        <v>1207</v>
       </c>
       <c r="D144" t="n">
-        <v>2226156</v>
+        <v>2445337</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D145" t="n">
-        <v>607446</v>
+        <v>688946</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="D148" t="n">
-        <v>1830569</v>
+        <v>1862219</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3330</v>
+        <v>3404</v>
       </c>
       <c r="D149" t="n">
-        <v>5452849</v>
+        <v>5866424</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7672</v>
+        <v>7835</v>
       </c>
       <c r="D150" t="n">
-        <v>13221341</v>
+        <v>14331936</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2200</v>
+        <v>2259</v>
       </c>
       <c r="D151" t="n">
-        <v>4045077</v>
+        <v>4525006</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D152" t="n">
-        <v>986386</v>
+        <v>1081041</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D153" t="n">
-        <v>249477</v>
+        <v>309477</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
-        <v>63164</v>
+        <v>74664</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2814</v>
+        <v>2855</v>
       </c>
       <c r="D155" t="n">
-        <v>3770029</v>
+        <v>3885021</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4552</v>
+        <v>4658</v>
       </c>
       <c r="D156" t="n">
-        <v>7584667</v>
+        <v>8181685</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>10335</v>
+        <v>10584</v>
       </c>
       <c r="D157" t="n">
-        <v>18026625</v>
+        <v>19789750</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3744</v>
+        <v>3837</v>
       </c>
       <c r="D158" t="n">
-        <v>7100797</v>
+        <v>7886283</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="D159" t="n">
-        <v>1921425</v>
+        <v>2090106</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D160" t="n">
-        <v>662556</v>
+        <v>746054</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D161" t="n">
-        <v>88160</v>
+        <v>98160</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3701</v>
+        <v>3772</v>
       </c>
       <c r="D162" t="n">
-        <v>5107988</v>
+        <v>5332154</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4447</v>
+        <v>4540</v>
       </c>
       <c r="D163" t="n">
-        <v>7471476</v>
+        <v>7938111</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>12211</v>
+        <v>12475</v>
       </c>
       <c r="D164" t="n">
-        <v>21794608</v>
+        <v>23654183</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4188</v>
+        <v>4294</v>
       </c>
       <c r="D165" t="n">
-        <v>8620251</v>
+        <v>9543614</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1331</v>
+        <v>1362</v>
       </c>
       <c r="D166" t="n">
-        <v>2733860</v>
+        <v>3007358</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D167" t="n">
-        <v>904697</v>
+        <v>1015694</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" t="n">
-        <v>171481</v>
+        <v>181481</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3838</v>
+        <v>3891</v>
       </c>
       <c r="D169" t="n">
-        <v>5369990</v>
+        <v>5547116</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4732</v>
+        <v>4814</v>
       </c>
       <c r="D170" t="n">
-        <v>7846747</v>
+        <v>8349450</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9870</v>
+        <v>10076</v>
       </c>
       <c r="D171" t="n">
-        <v>17084227</v>
+        <v>18604851</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3301</v>
+        <v>3401</v>
       </c>
       <c r="D172" t="n">
-        <v>6171474</v>
+        <v>6961956</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D173" t="n">
-        <v>1464403</v>
+        <v>1606153</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D174" t="n">
-        <v>499132</v>
+        <v>577858</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D175" t="n">
-        <v>72749</v>
+        <v>83748</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3573</v>
+        <v>3635</v>
       </c>
       <c r="D176" t="n">
-        <v>5008829</v>
+        <v>5205228</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="D177" t="n">
-        <v>1829126</v>
+        <v>1940726</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3130</v>
+        <v>3186</v>
       </c>
       <c r="D178" t="n">
-        <v>5272964</v>
+        <v>5674506</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1044</v>
+        <v>1070</v>
       </c>
       <c r="D179" t="n">
-        <v>2038279</v>
+        <v>2281763</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D180" t="n">
-        <v>567632</v>
+        <v>587632</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D181" t="n">
-        <v>98404</v>
+        <v>116171</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1385</v>
+        <v>1403</v>
       </c>
       <c r="D183" t="n">
-        <v>1876899</v>
+        <v>1928704</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9166,10 +9166,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1487</v>
+        <v>1514</v>
       </c>
       <c r="D184" t="n">
-        <v>2500127</v>
+        <v>2649187</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4397</v>
+        <v>4499</v>
       </c>
       <c r="D185" t="n">
-        <v>7764509</v>
+        <v>8454165</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1464</v>
+        <v>1499</v>
       </c>
       <c r="D186" t="n">
-        <v>2814714</v>
+        <v>3129990</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D187" t="n">
-        <v>746947</v>
+        <v>838256</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D188" t="n">
-        <v>134821</v>
+        <v>144821</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1381</v>
+        <v>1409</v>
       </c>
       <c r="D190" t="n">
-        <v>2014146</v>
+        <v>2109922</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D191" t="n">
-        <v>1291453</v>
+        <v>1396132</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2453</v>
+        <v>2513</v>
       </c>
       <c r="D192" t="n">
-        <v>4143472</v>
+        <v>4501409</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="D193" t="n">
-        <v>1626020</v>
+        <v>1793841</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D194" t="n">
-        <v>399938</v>
+        <v>442104</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D195" t="n">
-        <v>156522</v>
+        <v>188022</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9790,10 +9790,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1084</v>
+        <v>1107</v>
       </c>
       <c r="D197" t="n">
-        <v>1405779</v>
+        <v>1458177</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2883</v>
+        <v>2934</v>
       </c>
       <c r="D198" t="n">
-        <v>5010307</v>
+        <v>5305079</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7407</v>
+        <v>7560</v>
       </c>
       <c r="D199" t="n">
-        <v>13440190</v>
+        <v>14497120</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2648</v>
+        <v>2707</v>
       </c>
       <c r="D200" t="n">
-        <v>5314802</v>
+        <v>5848803</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="D201" t="n">
-        <v>1635567</v>
+        <v>1790491</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D202" t="n">
-        <v>517027</v>
+        <v>579193</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2618</v>
+        <v>2641</v>
       </c>
       <c r="D204" t="n">
-        <v>3698864</v>
+        <v>3809445</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2414</v>
+        <v>2470</v>
       </c>
       <c r="D205" t="n">
-        <v>4217738</v>
+        <v>4582180</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>7172</v>
+        <v>7350</v>
       </c>
       <c r="D206" t="n">
-        <v>13118969</v>
+        <v>14372134</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2711</v>
+        <v>2773</v>
       </c>
       <c r="D207" t="n">
-        <v>5378629</v>
+        <v>5907915</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="D208" t="n">
-        <v>1403201</v>
+        <v>1581339</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D209" t="n">
-        <v>527534</v>
+        <v>647534</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10462,10 +10462,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2312</v>
+        <v>2350</v>
       </c>
       <c r="D211" t="n">
-        <v>3179634</v>
+        <v>3289890</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1300</v>
+        <v>1327</v>
       </c>
       <c r="D212" t="n">
-        <v>2110143</v>
+        <v>2268270</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3952</v>
+        <v>4032</v>
       </c>
       <c r="D213" t="n">
-        <v>6986287</v>
+        <v>7511986</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1339</v>
+        <v>1368</v>
       </c>
       <c r="D214" t="n">
-        <v>2467731</v>
+        <v>2729551</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D215" t="n">
-        <v>505537</v>
+        <v>572737</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1361</v>
+        <v>1387</v>
       </c>
       <c r="D218" t="n">
-        <v>1950750</v>
+        <v>2035708</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="D219" t="n">
-        <v>2067356</v>
+        <v>2128606</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4739</v>
+        <v>4815</v>
       </c>
       <c r="D220" t="n">
-        <v>8455977</v>
+        <v>8994894</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2400</v>
+        <v>2440</v>
       </c>
       <c r="D221" t="n">
-        <v>4721464</v>
+        <v>5045045</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D222" t="n">
-        <v>1363385</v>
+        <v>1485551</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D223" t="n">
-        <v>547457</v>
+        <v>668287</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D224" t="n">
-        <v>98409</v>
+        <v>118409</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="D225" t="n">
-        <v>1459161</v>
+        <v>1539423</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3040</v>
+        <v>3093</v>
       </c>
       <c r="D226" t="n">
-        <v>5380087</v>
+        <v>5661467</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5375</v>
+        <v>5484</v>
       </c>
       <c r="D227" t="n">
-        <v>9769496</v>
+        <v>10498031</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1631</v>
+        <v>1664</v>
       </c>
       <c r="D228" t="n">
-        <v>3221204</v>
+        <v>3530614</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D229" t="n">
-        <v>875759</v>
+        <v>963091</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D230" t="n">
-        <v>219555</v>
+        <v>229555</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11422,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D231" t="n">
-        <v>33666</v>
+        <v>43666</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2112</v>
+        <v>2137</v>
       </c>
       <c r="D232" t="n">
-        <v>2999544</v>
+        <v>3072936</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="D233" t="n">
-        <v>1547877</v>
+        <v>1607435</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2860</v>
+        <v>2914</v>
       </c>
       <c r="D234" t="n">
-        <v>4909225</v>
+        <v>5226922</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="D235" t="n">
-        <v>1640780</v>
+        <v>1757571</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11662,10 +11662,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D236" t="n">
-        <v>533361</v>
+        <v>554027</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D237" t="n">
-        <v>130145</v>
+        <v>140811</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1191</v>
+        <v>1218</v>
       </c>
       <c r="D239" t="n">
-        <v>1618344</v>
+        <v>1692774</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1228</v>
+        <v>1249</v>
       </c>
       <c r="D240" t="n">
-        <v>2045639</v>
+        <v>2154475</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3449</v>
+        <v>3524</v>
       </c>
       <c r="D241" t="n">
-        <v>6408024</v>
+        <v>6908807</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1118</v>
+        <v>1144</v>
       </c>
       <c r="D242" t="n">
-        <v>2338879</v>
+        <v>2551575</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D243" t="n">
-        <v>567838</v>
+        <v>622170</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D244" t="n">
-        <v>242301</v>
+        <v>272301</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1236</v>
+        <v>1258</v>
       </c>
       <c r="D245" t="n">
-        <v>2014271</v>
+        <v>2106016</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5095</v>
+        <v>5169</v>
       </c>
       <c r="D246" t="n">
-        <v>8494039</v>
+        <v>8897167</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>15521</v>
+        <v>15763</v>
       </c>
       <c r="D247" t="n">
-        <v>26816766</v>
+        <v>28480126</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6139</v>
+        <v>6287</v>
       </c>
       <c r="D248" t="n">
-        <v>11703614</v>
+        <v>12924700</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2089</v>
+        <v>2141</v>
       </c>
       <c r="D249" t="n">
-        <v>4155434</v>
+        <v>4620749</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="D250" t="n">
-        <v>1550642</v>
+        <v>1749937</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D251" t="n">
-        <v>325318</v>
+        <v>375318</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4329</v>
+        <v>4395</v>
       </c>
       <c r="D252" t="n">
-        <v>6210860</v>
+        <v>6417232</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D253" t="n">
-        <v>1014626</v>
+        <v>1079644</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1687</v>
+        <v>1710</v>
       </c>
       <c r="D254" t="n">
-        <v>2714699</v>
+        <v>2855542</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D255" t="n">
-        <v>1031178</v>
+        <v>1149520</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D256" t="n">
-        <v>316076</v>
+        <v>334513</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D257" t="n">
-        <v>169338</v>
+        <v>170004</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12766,10 +12766,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="D259" t="n">
-        <v>964090</v>
+        <v>1030980</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12814,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3368</v>
+        <v>3417</v>
       </c>
       <c r="D260" t="n">
-        <v>5656154</v>
+        <v>5960126</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>9708</v>
+        <v>9883</v>
       </c>
       <c r="D261" t="n">
-        <v>16541024</v>
+        <v>17746787</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4010</v>
+        <v>4085</v>
       </c>
       <c r="D262" t="n">
-        <v>7419891</v>
+        <v>8064593</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1160</v>
+        <v>1193</v>
       </c>
       <c r="D263" t="n">
-        <v>2217286</v>
+        <v>2491251</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D264" t="n">
-        <v>911347</v>
+        <v>1033678</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D265" t="n">
-        <v>77464</v>
+        <v>87464</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2484</v>
+        <v>2521</v>
       </c>
       <c r="D268" t="n">
-        <v>3383137</v>
+        <v>3478539</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2266</v>
+        <v>2309</v>
       </c>
       <c r="D269" t="n">
-        <v>3959655</v>
+        <v>4190024</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6658</v>
+        <v>6812</v>
       </c>
       <c r="D270" t="n">
-        <v>13460697</v>
+        <v>14544437</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2406</v>
+        <v>2461</v>
       </c>
       <c r="D271" t="n">
-        <v>5164427</v>
+        <v>5573558</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="D272" t="n">
-        <v>1709342</v>
+        <v>1899511</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D273" t="n">
-        <v>669145</v>
+        <v>740144</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13486,10 +13486,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D274" t="n">
-        <v>163489</v>
+        <v>173489</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2727</v>
+        <v>2788</v>
       </c>
       <c r="D275" t="n">
-        <v>4986111</v>
+        <v>5282145</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2338</v>
+        <v>2385</v>
       </c>
       <c r="D276" t="n">
-        <v>3965858</v>
+        <v>4200701</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6991</v>
+        <v>7133</v>
       </c>
       <c r="D277" t="n">
-        <v>12326209</v>
+        <v>13341720</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2402</v>
+        <v>2446</v>
       </c>
       <c r="D278" t="n">
-        <v>4381338</v>
+        <v>4777617</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="D279" t="n">
-        <v>1294430</v>
+        <v>1443380</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13774,10 +13774,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D280" t="n">
-        <v>568665</v>
+        <v>650831</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D281" t="n">
-        <v>64984</v>
+        <v>74984</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2702</v>
+        <v>2750</v>
       </c>
       <c r="D282" t="n">
-        <v>3760138</v>
+        <v>3894629</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D283" t="n">
-        <v>1003076</v>
+        <v>1073549</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1743</v>
+        <v>1787</v>
       </c>
       <c r="D284" t="n">
-        <v>2925539</v>
+        <v>3201316</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D285" t="n">
-        <v>989723</v>
+        <v>1093943</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D286" t="n">
-        <v>278187</v>
+        <v>296053</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14110,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D287" t="n">
-        <v>81014</v>
+        <v>104364</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="D289" t="n">
-        <v>1008833</v>
+        <v>1038615</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3199</v>
+        <v>3229</v>
       </c>
       <c r="D290" t="n">
-        <v>5214837</v>
+        <v>5366627</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10358</v>
+        <v>10529</v>
       </c>
       <c r="D291" t="n">
-        <v>17355215</v>
+        <v>18520687</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4384</v>
+        <v>4474</v>
       </c>
       <c r="D292" t="n">
-        <v>8112465</v>
+        <v>8913503</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1403</v>
+        <v>1431</v>
       </c>
       <c r="D293" t="n">
-        <v>2648780</v>
+        <v>2892181</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D294" t="n">
-        <v>672599</v>
+        <v>762599</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D295" t="n">
-        <v>129150</v>
+        <v>149150</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2864</v>
+        <v>2910</v>
       </c>
       <c r="D297" t="n">
-        <v>3962766</v>
+        <v>4116709</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="D298" t="n">
-        <v>3314562</v>
+        <v>3550297</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>4998</v>
+        <v>5091</v>
       </c>
       <c r="D299" t="n">
-        <v>8621859</v>
+        <v>9261058</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1627</v>
+        <v>1666</v>
       </c>
       <c r="D300" t="n">
-        <v>3044738</v>
+        <v>3364079</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D301" t="n">
-        <v>822136</v>
+        <v>894197</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D302" t="n">
-        <v>195857</v>
+        <v>215857</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1953</v>
+        <v>1977</v>
       </c>
       <c r="D304" t="n">
-        <v>2671119</v>
+        <v>2734217</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2580</v>
+        <v>2598</v>
       </c>
       <c r="D305" t="n">
-        <v>3992571</v>
+        <v>4065800</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>8622</v>
+        <v>8667</v>
       </c>
       <c r="D306" t="n">
-        <v>13494779</v>
+        <v>13751022</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2908</v>
+        <v>2927</v>
       </c>
       <c r="D307" t="n">
-        <v>4798478</v>
+        <v>4911325</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15118,10 +15118,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="D308" t="n">
-        <v>1662564</v>
+        <v>1746827</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D309" t="n">
-        <v>499005</v>
+        <v>502005</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>8606</v>
+        <v>8666</v>
       </c>
       <c r="D312" t="n">
-        <v>12260864</v>
+        <v>12406815</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1762</v>
+        <v>1767</v>
       </c>
       <c r="D313" t="n">
-        <v>3772020</v>
+        <v>3802979</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4168</v>
+        <v>4179</v>
       </c>
       <c r="D314" t="n">
-        <v>8773890</v>
+        <v>8831338</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D315" t="n">
-        <v>3599061</v>
+        <v>3609061</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D316" t="n">
-        <v>1180012</v>
+        <v>1181512</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="D319" t="n">
-        <v>5279325</v>
+        <v>5316809</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="D320" t="n">
-        <v>2451665</v>
+        <v>2570394</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4523</v>
+        <v>4619</v>
       </c>
       <c r="D321" t="n">
-        <v>7929594</v>
+        <v>8576293</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1715</v>
+        <v>1752</v>
       </c>
       <c r="D322" t="n">
-        <v>3200322</v>
+        <v>3495304</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D323" t="n">
-        <v>736728</v>
+        <v>779728</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D324" t="n">
-        <v>269660</v>
+        <v>304160</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1766</v>
+        <v>1808</v>
       </c>
       <c r="D327" t="n">
-        <v>2650137</v>
+        <v>2814131</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>9300</v>
+        <v>9469</v>
       </c>
       <c r="D328" t="n">
-        <v>15881880</v>
+        <v>16748059</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>25837</v>
+        <v>26362</v>
       </c>
       <c r="D329" t="n">
-        <v>47776396</v>
+        <v>51453356</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>9432</v>
+        <v>9646</v>
       </c>
       <c r="D330" t="n">
-        <v>19629287</v>
+        <v>21510294</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2967</v>
+        <v>3044</v>
       </c>
       <c r="D331" t="n">
-        <v>6319073</v>
+        <v>6987137</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>885</v>
+        <v>917</v>
       </c>
       <c r="D332" t="n">
-        <v>2397274</v>
+        <v>2698501</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D333" t="n">
-        <v>545640</v>
+        <v>707054</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>7635</v>
+        <v>7749</v>
       </c>
       <c r="D336" t="n">
-        <v>10634834</v>
+        <v>10972826</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2680</v>
+        <v>2740</v>
       </c>
       <c r="D337" t="n">
-        <v>4536830</v>
+        <v>4889740</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>8332</v>
+        <v>8539</v>
       </c>
       <c r="D338" t="n">
-        <v>15072293</v>
+        <v>16473139</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2929</v>
+        <v>2998</v>
       </c>
       <c r="D339" t="n">
-        <v>5773388</v>
+        <v>6380182</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="D340" t="n">
-        <v>1595903</v>
+        <v>1757403</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16702,10 +16702,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D341" t="n">
-        <v>581242</v>
+        <v>654908</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D342" t="n">
-        <v>75996</v>
+        <v>95996</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2398</v>
+        <v>2430</v>
       </c>
       <c r="D343" t="n">
-        <v>3464054</v>
+        <v>3576513</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4670</v>
+        <v>4764</v>
       </c>
       <c r="D344" t="n">
-        <v>7690167</v>
+        <v>8114831</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>13636</v>
+        <v>13902</v>
       </c>
       <c r="D345" t="n">
-        <v>24082120</v>
+        <v>25833751</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4466</v>
+        <v>4558</v>
       </c>
       <c r="D346" t="n">
-        <v>8711673</v>
+        <v>9485607</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1485</v>
+        <v>1515</v>
       </c>
       <c r="D347" t="n">
-        <v>3052405</v>
+        <v>3310803</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17038,10 +17038,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D348" t="n">
-        <v>881181</v>
+        <v>991181</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D349" t="n">
-        <v>194974</v>
+        <v>215640</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4650</v>
+        <v>4742</v>
       </c>
       <c r="D351" t="n">
-        <v>6312365</v>
+        <v>6536725</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1855</v>
+        <v>1883</v>
       </c>
       <c r="D352" t="n">
-        <v>3042748</v>
+        <v>3184883</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>5254</v>
+        <v>5348</v>
       </c>
       <c r="D353" t="n">
-        <v>8909821</v>
+        <v>9557327</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1994</v>
+        <v>2033</v>
       </c>
       <c r="D354" t="n">
-        <v>3564715</v>
+        <v>3885083</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17374,10 +17374,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="D355" t="n">
-        <v>1057143</v>
+        <v>1188643</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D356" t="n">
-        <v>431180</v>
+        <v>521846</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1980</v>
+        <v>2014</v>
       </c>
       <c r="D358" t="n">
-        <v>2649786</v>
+        <v>2762186</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>5014</v>
+        <v>5097</v>
       </c>
       <c r="D359" t="n">
-        <v>8735468</v>
+        <v>9183334</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>13567</v>
+        <v>13811</v>
       </c>
       <c r="D360" t="n">
-        <v>24217769</v>
+        <v>25773984</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>5051</v>
+        <v>5145</v>
       </c>
       <c r="D361" t="n">
-        <v>9681821</v>
+        <v>10544240</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1546</v>
+        <v>1584</v>
       </c>
       <c r="D362" t="n">
-        <v>3120918</v>
+        <v>3447719</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D363" t="n">
-        <v>973700</v>
+        <v>1115866</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D364" t="n">
-        <v>188643</v>
+        <v>233625</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4526</v>
+        <v>4603</v>
       </c>
       <c r="D367" t="n">
-        <v>6715582</v>
+        <v>6969037</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>9595</v>
+        <v>9744</v>
       </c>
       <c r="D368" t="n">
-        <v>17201906</v>
+        <v>17957044</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>22113</v>
+        <v>22492</v>
       </c>
       <c r="D369" t="n">
-        <v>41388893</v>
+        <v>43978928</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>9655</v>
+        <v>9845</v>
       </c>
       <c r="D370" t="n">
-        <v>19948242</v>
+        <v>21635600</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3133</v>
+        <v>3210</v>
       </c>
       <c r="D371" t="n">
-        <v>7427417</v>
+        <v>8122309</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="D372" t="n">
-        <v>2741156</v>
+        <v>2997425</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D373" t="n">
-        <v>562869</v>
+        <v>582869</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D374" t="n">
-        <v>84658</v>
+        <v>104658</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>7934</v>
+        <v>8033</v>
       </c>
       <c r="D375" t="n">
-        <v>11534916</v>
+        <v>11840381</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>27737</v>
+        <v>28131</v>
       </c>
       <c r="D376" t="n">
-        <v>51240551</v>
+        <v>53464822</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>73390</v>
+        <v>74668</v>
       </c>
       <c r="D377" t="n">
-        <v>142340271</v>
+        <v>151390769</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>36170</v>
+        <v>36879</v>
       </c>
       <c r="D378" t="n">
-        <v>80747001</v>
+        <v>86954064</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>14757</v>
+        <v>15132</v>
       </c>
       <c r="D379" t="n">
-        <v>39029629</v>
+        <v>42496123</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>5486</v>
+        <v>5690</v>
       </c>
       <c r="D380" t="n">
-        <v>19299198</v>
+        <v>21140487</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="D381" t="n">
-        <v>4475501</v>
+        <v>4830027</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D382" t="n">
-        <v>203606</v>
+        <v>233606</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>26189</v>
+        <v>26488</v>
       </c>
       <c r="D386" t="n">
-        <v>38820847</v>
+        <v>39896591</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>6018</v>
+        <v>6126</v>
       </c>
       <c r="D387" t="n">
-        <v>10458003</v>
+        <v>10998427</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>15868</v>
+        <v>16153</v>
       </c>
       <c r="D388" t="n">
-        <v>28533028</v>
+        <v>30590975</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>5923</v>
+        <v>6057</v>
       </c>
       <c r="D389" t="n">
-        <v>11520651</v>
+        <v>12670659</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1923</v>
+        <v>1989</v>
       </c>
       <c r="D390" t="n">
-        <v>4147958</v>
+        <v>4694522</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D391" t="n">
-        <v>1413634</v>
+        <v>1596466</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D392" t="n">
-        <v>259813</v>
+        <v>269813</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>6091</v>
+        <v>6190</v>
       </c>
       <c r="D393" t="n">
-        <v>8911583</v>
+        <v>9271585</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>8158</v>
+        <v>8300</v>
       </c>
       <c r="D394" t="n">
-        <v>14058824</v>
+        <v>14773628</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>26216</v>
+        <v>26608</v>
       </c>
       <c r="D395" t="n">
-        <v>46529610</v>
+        <v>49045637</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>11468</v>
+        <v>11628</v>
       </c>
       <c r="D396" t="n">
-        <v>21948206</v>
+        <v>23215176</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3231</v>
+        <v>3285</v>
       </c>
       <c r="D397" t="n">
-        <v>6419939</v>
+        <v>6867054</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19438,10 +19438,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>973</v>
+        <v>994</v>
       </c>
       <c r="D398" t="n">
-        <v>2417378</v>
+        <v>2618878</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19486,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D399" t="n">
-        <v>421471</v>
+        <v>471471</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>8338</v>
+        <v>8483</v>
       </c>
       <c r="D401" t="n">
-        <v>12160248</v>
+        <v>12630256</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6938</v>
+        <v>7042</v>
       </c>
       <c r="D402" t="n">
-        <v>12045119</v>
+        <v>12577156</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>18920</v>
+        <v>19220</v>
       </c>
       <c r="D403" t="n">
-        <v>34107713</v>
+        <v>35965066</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>7533</v>
+        <v>7677</v>
       </c>
       <c r="D404" t="n">
-        <v>14747409</v>
+        <v>15928237</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2284</v>
+        <v>2315</v>
       </c>
       <c r="D405" t="n">
-        <v>4808846</v>
+        <v>5074637</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="D406" t="n">
-        <v>1677208</v>
+        <v>1878197</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D407" t="n">
-        <v>320811</v>
+        <v>322311</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>7220</v>
+        <v>7313</v>
       </c>
       <c r="D410" t="n">
-        <v>10471399</v>
+        <v>10775798</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5175</v>
+        <v>5260</v>
       </c>
       <c r="D411" t="n">
-        <v>8786733</v>
+        <v>9201925</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>15364</v>
+        <v>15628</v>
       </c>
       <c r="D412" t="n">
-        <v>27702488</v>
+        <v>29386286</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>6067</v>
+        <v>6187</v>
       </c>
       <c r="D413" t="n">
-        <v>11551672</v>
+        <v>12559023</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="D414" t="n">
-        <v>3672883</v>
+        <v>3925027</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="D415" t="n">
-        <v>1125721</v>
+        <v>1267567</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D416" t="n">
-        <v>313538</v>
+        <v>343538</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>5365</v>
+        <v>5444</v>
       </c>
       <c r="D418" t="n">
-        <v>7662528</v>
+        <v>7915312</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5496</v>
+        <v>5587</v>
       </c>
       <c r="D419" t="n">
-        <v>9540420</v>
+        <v>10092613</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>14456</v>
+        <v>14720</v>
       </c>
       <c r="D420" t="n">
-        <v>26313314</v>
+        <v>28261675</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5662</v>
+        <v>5823</v>
       </c>
       <c r="D421" t="n">
-        <v>11538715</v>
+        <v>12906160</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20590,10 +20590,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1891</v>
+        <v>1942</v>
       </c>
       <c r="D422" t="n">
-        <v>4076698</v>
+        <v>4552664</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20638,10 +20638,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="D423" t="n">
-        <v>1481398</v>
+        <v>1649167</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D424" t="n">
-        <v>296464</v>
+        <v>329464</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D425" t="n">
-        <v>27023</v>
+        <v>37023</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>5238</v>
+        <v>5288</v>
       </c>
       <c r="D426" t="n">
-        <v>7702291</v>
+        <v>7915143</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>5427</v>
+        <v>5443</v>
       </c>
       <c r="D427" t="n">
-        <v>8151075</v>
+        <v>8226342</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>13201</v>
+        <v>13241</v>
       </c>
       <c r="D428" t="n">
-        <v>20140632</v>
+        <v>20331085</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>4274</v>
+        <v>4285</v>
       </c>
       <c r="D429" t="n">
-        <v>6631551</v>
+        <v>6710451</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D430" t="n">
-        <v>2391008</v>
+        <v>2411008</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21022,10 +21022,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D431" t="n">
-        <v>713012</v>
+        <v>714512</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D432" t="n">
-        <v>108725</v>
+        <v>118725</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>6124</v>
+        <v>6139</v>
       </c>
       <c r="D434" t="n">
-        <v>8356145</v>
+        <v>8395876</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2103</v>
+        <v>2139</v>
       </c>
       <c r="D435" t="n">
-        <v>3463178</v>
+        <v>3678111</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21262,10 +21262,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>6594</v>
+        <v>6715</v>
       </c>
       <c r="D436" t="n">
-        <v>11127309</v>
+        <v>11919690</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2360</v>
+        <v>2401</v>
       </c>
       <c r="D437" t="n">
-        <v>4195198</v>
+        <v>4491116</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="D438" t="n">
-        <v>1617006</v>
+        <v>1750506</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D439" t="n">
-        <v>625631</v>
+        <v>736173</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D440" t="n">
-        <v>109164</v>
+        <v>119164</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>4411</v>
+        <v>4493</v>
       </c>
       <c r="D442" t="n">
-        <v>6100081</v>
+        <v>6373457</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D443" t="n">
-        <v>2085998</v>
+        <v>2095998</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D444" t="n">
-        <v>1565637</v>
+        <v>1611137</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D445" t="n">
-        <v>548616</v>
+        <v>549776</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4077</v>
+        <v>4166</v>
       </c>
       <c r="D449" t="n">
-        <v>7235710</v>
+        <v>7764977</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>9370</v>
+        <v>9595</v>
       </c>
       <c r="D450" t="n">
-        <v>17116282</v>
+        <v>18690109</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -21982,10 +21982,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3250</v>
+        <v>3334</v>
       </c>
       <c r="D451" t="n">
-        <v>6617979</v>
+        <v>7285937</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1035</v>
+        <v>1058</v>
       </c>
       <c r="D452" t="n">
-        <v>2268065</v>
+        <v>2489383</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D453" t="n">
-        <v>819595</v>
+        <v>969595</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2903</v>
+        <v>2957</v>
       </c>
       <c r="D456" t="n">
-        <v>4108607</v>
+        <v>4257009</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2296</v>
+        <v>2354</v>
       </c>
       <c r="D457" t="n">
-        <v>4013572</v>
+        <v>4322641</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>6140</v>
+        <v>6283</v>
       </c>
       <c r="D458" t="n">
-        <v>10973029</v>
+        <v>11991214</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22366,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2054</v>
+        <v>2103</v>
       </c>
       <c r="D459" t="n">
-        <v>3925513</v>
+        <v>4328398</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D460" t="n">
-        <v>1028962</v>
+        <v>1113457</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D461" t="n">
-        <v>235262</v>
+        <v>265262</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D462" t="n">
-        <v>40825</v>
+        <v>51491</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2029</v>
+        <v>2063</v>
       </c>
       <c r="D464" t="n">
-        <v>2834302</v>
+        <v>2933662</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22654,10 +22654,10 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2631</v>
+        <v>2672</v>
       </c>
       <c r="D465" t="n">
-        <v>4458552</v>
+        <v>4690739</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>6207</v>
+        <v>6333</v>
       </c>
       <c r="D466" t="n">
-        <v>10910115</v>
+        <v>11820229</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2022</v>
+        <v>2071</v>
       </c>
       <c r="D467" t="n">
-        <v>3900029</v>
+        <v>4319805</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="D468" t="n">
-        <v>1099639</v>
+        <v>1220305</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D469" t="n">
-        <v>264626</v>
+        <v>307062</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D471" t="n">
-        <v>20002</v>
+        <v>25941</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1958</v>
+        <v>1985</v>
       </c>
       <c r="D472" t="n">
-        <v>2668762</v>
+        <v>2760764</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="D473" t="n">
-        <v>1938835</v>
+        <v>2053700</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3384</v>
+        <v>3446</v>
       </c>
       <c r="D474" t="n">
-        <v>5803462</v>
+        <v>6264289</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="D475" t="n">
-        <v>1821449</v>
+        <v>1990438</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D476" t="n">
-        <v>436355</v>
+        <v>466355</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D477" t="n">
-        <v>79231</v>
+        <v>89231</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="D479" t="n">
-        <v>1779917</v>
+        <v>1861323</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>4001</v>
+        <v>4084</v>
       </c>
       <c r="D480" t="n">
-        <v>6878554</v>
+        <v>7341673</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>12015</v>
+        <v>12298</v>
       </c>
       <c r="D481" t="n">
-        <v>21888612</v>
+        <v>23864182</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4459</v>
+        <v>4569</v>
       </c>
       <c r="D482" t="n">
-        <v>8823072</v>
+        <v>9741605</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1298</v>
+        <v>1326</v>
       </c>
       <c r="D483" t="n">
-        <v>2620659</v>
+        <v>2874425</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D484" t="n">
-        <v>994517</v>
+        <v>1125818</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D485" t="n">
-        <v>249608</v>
+        <v>311774</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3623</v>
+        <v>3683</v>
       </c>
       <c r="D487" t="n">
-        <v>4985727</v>
+        <v>5176878</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1556</v>
+        <v>1592</v>
       </c>
       <c r="D488" t="n">
-        <v>2547928</v>
+        <v>2737622</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4032</v>
+        <v>4105</v>
       </c>
       <c r="D489" t="n">
-        <v>6913793</v>
+        <v>7382828</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1328</v>
+        <v>1362</v>
       </c>
       <c r="D490" t="n">
-        <v>2543058</v>
+        <v>2863579</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D491" t="n">
-        <v>863356</v>
+        <v>943356</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D492" t="n">
-        <v>166824</v>
+        <v>176824</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1654</v>
+        <v>1683</v>
       </c>
       <c r="D494" t="n">
-        <v>2189383</v>
+        <v>2274697</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>5486</v>
+        <v>5589</v>
       </c>
       <c r="D495" t="n">
-        <v>9279236</v>
+        <v>9865358</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>9988</v>
+        <v>10207</v>
       </c>
       <c r="D496" t="n">
-        <v>17558855</v>
+        <v>19041610</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2998</v>
+        <v>3071</v>
       </c>
       <c r="D497" t="n">
-        <v>5875341</v>
+        <v>6524539</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="D498" t="n">
-        <v>1622940</v>
+        <v>1800272</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24286,10 +24286,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D499" t="n">
-        <v>466016</v>
+        <v>548182</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24334,10 +24334,10 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D500" t="n">
-        <v>84686</v>
+        <v>114686</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -24382,10 +24382,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3231</v>
+        <v>3285</v>
       </c>
       <c r="D501" t="n">
-        <v>4520941</v>
+        <v>4678860</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1359</v>
+        <v>1392</v>
       </c>
       <c r="D502" t="n">
-        <v>2239237</v>
+        <v>2425915</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3237</v>
+        <v>3306</v>
       </c>
       <c r="D503" t="n">
-        <v>5588790</v>
+        <v>6024454</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>986</v>
+        <v>1007</v>
       </c>
       <c r="D504" t="n">
-        <v>1803632</v>
+        <v>1963943</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D505" t="n">
-        <v>550586</v>
+        <v>631918</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D506" t="n">
-        <v>181799</v>
+        <v>241799</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1654</v>
+        <v>1678</v>
       </c>
       <c r="D508" t="n">
-        <v>2246886</v>
+        <v>2298961</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D509" t="n">
-        <v>759328</v>
+        <v>793769</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1325</v>
+        <v>1348</v>
       </c>
       <c r="D510" t="n">
-        <v>2130037</v>
+        <v>2259346</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D511" t="n">
-        <v>750333</v>
+        <v>773700</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D512" t="n">
-        <v>120627</v>
+        <v>130627</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="D515" t="n">
-        <v>987863</v>
+        <v>1039403</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1200</v>
+        <v>1228</v>
       </c>
       <c r="D516" t="n">
-        <v>1980876</v>
+        <v>2127600</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3622</v>
+        <v>3703</v>
       </c>
       <c r="D517" t="n">
-        <v>6437371</v>
+        <v>6987408</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="D518" t="n">
-        <v>2352872</v>
+        <v>2663786</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D519" t="n">
-        <v>662666</v>
+        <v>754166</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1231</v>
+        <v>1249</v>
       </c>
       <c r="D522" t="n">
-        <v>1773016</v>
+        <v>1857701</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25438,10 +25438,10 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3611</v>
+        <v>3682</v>
       </c>
       <c r="D523" t="n">
-        <v>6017818</v>
+        <v>6380110</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>6639</v>
+        <v>6774</v>
       </c>
       <c r="D524" t="n">
-        <v>11552122</v>
+        <v>12398718</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1901</v>
+        <v>1930</v>
       </c>
       <c r="D525" t="n">
-        <v>3571184</v>
+        <v>3832204</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D526" t="n">
-        <v>877251</v>
+        <v>953046</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D527" t="n">
-        <v>242037</v>
+        <v>285037</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D528" t="n">
-        <v>74829</v>
+        <v>105828</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2795</v>
+        <v>2850</v>
       </c>
       <c r="D529" t="n">
-        <v>3800620</v>
+        <v>3975338</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>11181</v>
+        <v>11382</v>
       </c>
       <c r="D530" t="n">
-        <v>18778494</v>
+        <v>19798673</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>23390</v>
+        <v>23851</v>
       </c>
       <c r="D531" t="n">
-        <v>42040326</v>
+        <v>45473547</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>8221</v>
+        <v>8402</v>
       </c>
       <c r="D532" t="n">
-        <v>16218635</v>
+        <v>17758423</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>2722</v>
+        <v>2805</v>
       </c>
       <c r="D533" t="n">
-        <v>5671094</v>
+        <v>6352594</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D534" t="n">
-        <v>1914984</v>
+        <v>2158218</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D535" t="n">
-        <v>403887</v>
+        <v>474553</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>8046</v>
+        <v>8153</v>
       </c>
       <c r="D538" t="n">
-        <v>11687548</v>
+        <v>12012985</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1719</v>
+        <v>1749</v>
       </c>
       <c r="D539" t="n">
-        <v>2804927</v>
+        <v>2948271</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4113</v>
+        <v>4194</v>
       </c>
       <c r="D540" t="n">
-        <v>7168850</v>
+        <v>7716128</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1414</v>
+        <v>1450</v>
       </c>
       <c r="D541" t="n">
-        <v>2743337</v>
+        <v>3024882</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D542" t="n">
-        <v>892326</v>
+        <v>997551</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D543" t="n">
-        <v>340995</v>
+        <v>400995</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26446,10 +26446,10 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D544" t="n">
-        <v>93228</v>
+        <v>106894</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1937</v>
+        <v>1965</v>
       </c>
       <c r="D546" t="n">
-        <v>2704987</v>
+        <v>2792967</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3720</v>
+        <v>3808</v>
       </c>
       <c r="D547" t="n">
-        <v>6205592</v>
+        <v>6652084</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>6246</v>
+        <v>6362</v>
       </c>
       <c r="D548" t="n">
-        <v>10781080</v>
+        <v>11615210</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26686,10 +26686,10 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1898</v>
+        <v>1935</v>
       </c>
       <c r="D549" t="n">
-        <v>3488962</v>
+        <v>3774033</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D550" t="n">
-        <v>1024273</v>
+        <v>1102747</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26782,10 +26782,10 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D551" t="n">
-        <v>333840</v>
+        <v>412342</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D552" t="n">
-        <v>81164</v>
+        <v>91164</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1963</v>
+        <v>1986</v>
       </c>
       <c r="D553" t="n">
-        <v>2740700</v>
+        <v>2804937</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2057</v>
+        <v>2090</v>
       </c>
       <c r="D554" t="n">
-        <v>3388977</v>
+        <v>3571408</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>4348</v>
+        <v>4425</v>
       </c>
       <c r="D555" t="n">
-        <v>7389465</v>
+        <v>7921615</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1484</v>
+        <v>1517</v>
       </c>
       <c r="D556" t="n">
-        <v>2790696</v>
+        <v>3079176</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D557" t="n">
-        <v>601215</v>
+        <v>625547</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D558" t="n">
-        <v>196826</v>
+        <v>226826</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27166,10 +27166,10 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D559" t="n">
-        <v>13666</v>
+        <v>23666</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1749</v>
+        <v>1772</v>
       </c>
       <c r="D561" t="n">
-        <v>2444571</v>
+        <v>2496253</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>4948</v>
+        <v>5046</v>
       </c>
       <c r="D562" t="n">
-        <v>8369685</v>
+        <v>8887104</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>11715</v>
+        <v>11913</v>
       </c>
       <c r="D563" t="n">
-        <v>20700859</v>
+        <v>22123855</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3961</v>
+        <v>4047</v>
       </c>
       <c r="D564" t="n">
-        <v>7554714</v>
+        <v>8295329</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27454,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1174</v>
+        <v>1201</v>
       </c>
       <c r="D565" t="n">
-        <v>2428612</v>
+        <v>2642680</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D566" t="n">
-        <v>596593</v>
+        <v>711065</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>4297</v>
+        <v>4342</v>
       </c>
       <c r="D569" t="n">
-        <v>5955808</v>
+        <v>6081183</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1525</v>
+        <v>1551</v>
       </c>
       <c r="D570" t="n">
-        <v>2488280</v>
+        <v>2605219</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>4266</v>
+        <v>4358</v>
       </c>
       <c r="D571" t="n">
-        <v>7291703</v>
+        <v>7926323</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1437</v>
+        <v>1472</v>
       </c>
       <c r="D572" t="n">
-        <v>2538196</v>
+        <v>2815506</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D573" t="n">
-        <v>889320</v>
+        <v>957982</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D574" t="n">
-        <v>136559</v>
+        <v>146559</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D575" t="n">
-        <v>109779</v>
+        <v>119779</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1504</v>
+        <v>1533</v>
       </c>
       <c r="D576" t="n">
-        <v>2132991</v>
+        <v>2223735</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D577" t="n">
-        <v>1004531</v>
+        <v>1036600</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>2318</v>
+        <v>2367</v>
       </c>
       <c r="D578" t="n">
-        <v>4141857</v>
+        <v>4473072</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="D579" t="n">
-        <v>1537772</v>
+        <v>1649020</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28174,10 +28174,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D580" t="n">
-        <v>446893</v>
+        <v>516032</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D581" t="n">
-        <v>97828</v>
+        <v>107828</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="D584" t="n">
-        <v>1347057</v>
+        <v>1395980</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3678</v>
+        <v>3750</v>
       </c>
       <c r="D585" t="n">
-        <v>6131548</v>
+        <v>6512096</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>6380</v>
+        <v>6489</v>
       </c>
       <c r="D586" t="n">
-        <v>11044865</v>
+        <v>11796859</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28510,10 +28510,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1939</v>
+        <v>1984</v>
       </c>
       <c r="D587" t="n">
-        <v>3716166</v>
+        <v>4081350</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D588" t="n">
-        <v>1067742</v>
+        <v>1147742</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D589" t="n">
-        <v>351084</v>
+        <v>421523</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D590" t="n">
-        <v>49998</v>
+        <v>79998</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2250</v>
+        <v>2292</v>
       </c>
       <c r="D591" t="n">
-        <v>3081581</v>
+        <v>3181017</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>2322</v>
+        <v>2353</v>
       </c>
       <c r="D592" t="n">
-        <v>3781884</v>
+        <v>3926103</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4585</v>
+        <v>4653</v>
       </c>
       <c r="D593" t="n">
-        <v>7885566</v>
+        <v>8350898</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1349</v>
+        <v>1374</v>
       </c>
       <c r="D594" t="n">
-        <v>2495856</v>
+        <v>2684398</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D595" t="n">
-        <v>767494</v>
+        <v>868826</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D596" t="n">
-        <v>240025</v>
+        <v>250691</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D597" t="n">
-        <v>50664</v>
+        <v>60664</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>2356</v>
+        <v>2377</v>
       </c>
       <c r="D598" t="n">
-        <v>3247104</v>
+        <v>3325337</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>5745</v>
+        <v>5849</v>
       </c>
       <c r="D599" t="n">
-        <v>10001597</v>
+        <v>10567746</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29134,10 +29134,10 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>13079</v>
+        <v>13296</v>
       </c>
       <c r="D600" t="n">
-        <v>23072521</v>
+        <v>24515618</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>3659</v>
+        <v>3729</v>
       </c>
       <c r="D601" t="n">
-        <v>7054850</v>
+        <v>7666188</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="D602" t="n">
-        <v>2040400</v>
+        <v>2211330</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D603" t="n">
-        <v>593880</v>
+        <v>651646</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D604" t="n">
-        <v>60830</v>
+        <v>80830</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>5016</v>
+        <v>5115</v>
       </c>
       <c r="D606" t="n">
-        <v>7057344</v>
+        <v>7364295</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="D607" t="n">
-        <v>2209939</v>
+        <v>2302598</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2933</v>
+        <v>2989</v>
       </c>
       <c r="D608" t="n">
-        <v>5176053</v>
+        <v>5553447</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="D609" t="n">
-        <v>1540933</v>
+        <v>1670902</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D610" t="n">
-        <v>393596</v>
+        <v>413596</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D611" t="n">
-        <v>169249</v>
+        <v>189249</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1522</v>
+        <v>1543</v>
       </c>
       <c r="D613" t="n">
-        <v>2072744</v>
+        <v>2120469</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8153</v>
+        <v>8284</v>
       </c>
       <c r="D614" t="n">
-        <v>13875105</v>
+        <v>14620951</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29854,10 +29854,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>19465</v>
+        <v>19782</v>
       </c>
       <c r="D615" t="n">
-        <v>35056093</v>
+        <v>37380549</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>7200</v>
+        <v>7343</v>
       </c>
       <c r="D616" t="n">
-        <v>15041991</v>
+        <v>16335814</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2309</v>
+        <v>2362</v>
       </c>
       <c r="D617" t="n">
-        <v>5173838</v>
+        <v>5641149</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="D618" t="n">
-        <v>1999187</v>
+        <v>2235578</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D619" t="n">
-        <v>402205</v>
+        <v>443705</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>7426</v>
+        <v>7527</v>
       </c>
       <c r="D621" t="n">
-        <v>10487604</v>
+        <v>10782637</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2316</v>
+        <v>2352</v>
       </c>
       <c r="D622" t="n">
-        <v>4568702</v>
+        <v>4791424</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>4368</v>
+        <v>4442</v>
       </c>
       <c r="D623" t="n">
-        <v>8273991</v>
+        <v>8797443</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1472</v>
+        <v>1498</v>
       </c>
       <c r="D624" t="n">
-        <v>3087799</v>
+        <v>3302501</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D625" t="n">
-        <v>1111872</v>
+        <v>1202855</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30382,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D626" t="n">
-        <v>397551</v>
+        <v>430548</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D627" t="n">
-        <v>5664</v>
+        <v>7164</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30526,10 +30526,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2293</v>
+        <v>2321</v>
       </c>
       <c r="D629" t="n">
-        <v>3251363</v>
+        <v>3331695</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>11257</v>
+        <v>11427</v>
       </c>
       <c r="D630" t="n">
-        <v>19682355</v>
+        <v>20645091</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>23351</v>
+        <v>23753</v>
       </c>
       <c r="D631" t="n">
-        <v>42286237</v>
+        <v>44996274</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>7053</v>
+        <v>7206</v>
       </c>
       <c r="D632" t="n">
-        <v>14401467</v>
+        <v>15714906</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="D633" t="n">
-        <v>4151665</v>
+        <v>4462381</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30766,10 +30766,10 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="D634" t="n">
-        <v>1395132</v>
+        <v>1565865</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D635" t="n">
-        <v>256610</v>
+        <v>276610</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>7300</v>
+        <v>7399</v>
       </c>
       <c r="D637" t="n">
-        <v>10258157</v>
+        <v>10568123</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1667</v>
+        <v>1698</v>
       </c>
       <c r="D638" t="n">
-        <v>2748378</v>
+        <v>2924281</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2900</v>
+        <v>2953</v>
       </c>
       <c r="D639" t="n">
-        <v>5090784</v>
+        <v>5448554</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="D640" t="n">
-        <v>1521393</v>
+        <v>1661099</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D641" t="n">
-        <v>345635</v>
+        <v>366301</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31150,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D642" t="n">
-        <v>92279</v>
+        <v>103779</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D643" t="n">
-        <v>16083</v>
+        <v>26083</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1423</v>
+        <v>1443</v>
       </c>
       <c r="D644" t="n">
-        <v>1915212</v>
+        <v>1963443</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="D645" t="n">
-        <v>1630082</v>
+        <v>1687604</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="D646" t="n">
-        <v>2209111</v>
+        <v>2332119</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D647" t="n">
-        <v>721755</v>
+        <v>763255</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31438,10 +31438,10 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D648" t="n">
-        <v>177300</v>
+        <v>197300</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -31486,10 +31486,10 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D649" t="n">
-        <v>57331</v>
+        <v>67331</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="D650" t="n">
-        <v>1441449</v>
+        <v>1471926</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>5199</v>
+        <v>5281</v>
       </c>
       <c r="D651" t="n">
-        <v>8810510</v>
+        <v>9298108</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>8342</v>
+        <v>8469</v>
       </c>
       <c r="D652" t="n">
-        <v>14498814</v>
+        <v>15338890</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2657</v>
+        <v>2707</v>
       </c>
       <c r="D653" t="n">
-        <v>5268711</v>
+        <v>5700500</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D654" t="n">
-        <v>1462496</v>
+        <v>1536848</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D655" t="n">
-        <v>477472</v>
+        <v>507472</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31870,10 +31870,10 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>3127</v>
+        <v>3188</v>
       </c>
       <c r="D657" t="n">
-        <v>4343735</v>
+        <v>4519360</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2180</v>
+        <v>2224</v>
       </c>
       <c r="D658" t="n">
-        <v>3529301</v>
+        <v>3730889</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>5259</v>
+        <v>5343</v>
       </c>
       <c r="D659" t="n">
-        <v>9138705</v>
+        <v>9733493</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1624</v>
+        <v>1652</v>
       </c>
       <c r="D660" t="n">
-        <v>3119020</v>
+        <v>3349817</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D661" t="n">
-        <v>839528</v>
+        <v>909017</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D662" t="n">
-        <v>206588</v>
+        <v>216588</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32254,10 +32254,10 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2163</v>
+        <v>2194</v>
       </c>
       <c r="D665" t="n">
-        <v>2979258</v>
+        <v>3080581</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>1457</v>
+        <v>1490</v>
       </c>
       <c r="D666" t="n">
-        <v>2449477</v>
+        <v>2631701</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3331</v>
+        <v>3379</v>
       </c>
       <c r="D667" t="n">
-        <v>5842666</v>
+        <v>6154197</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="D668" t="n">
-        <v>2020061</v>
+        <v>2164265</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D669" t="n">
-        <v>596063</v>
+        <v>676063</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D670" t="n">
-        <v>161144</v>
+        <v>171144</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="D672" t="n">
-        <v>2021071</v>
+        <v>2094075</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>6828</v>
+        <v>6951</v>
       </c>
       <c r="D673" t="n">
-        <v>11557509</v>
+        <v>12226954</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>15644</v>
+        <v>16010</v>
       </c>
       <c r="D674" t="n">
-        <v>28402941</v>
+        <v>31092072</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>6048</v>
+        <v>6204</v>
       </c>
       <c r="D675" t="n">
-        <v>11555703</v>
+        <v>12901668</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1729</v>
+        <v>1782</v>
       </c>
       <c r="D676" t="n">
-        <v>3582928</v>
+        <v>4054095</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="D677" t="n">
-        <v>1060403</v>
+        <v>1283636</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D678" t="n">
-        <v>194656</v>
+        <v>214656</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>5059</v>
+        <v>5142</v>
       </c>
       <c r="D680" t="n">
-        <v>7195127</v>
+        <v>7501378</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>2977</v>
+        <v>3037</v>
       </c>
       <c r="D681" t="n">
-        <v>4930245</v>
+        <v>5238077</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>8846</v>
+        <v>9024</v>
       </c>
       <c r="D682" t="n">
-        <v>15649503</v>
+        <v>16902780</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2951</v>
+        <v>3014</v>
       </c>
       <c r="D683" t="n">
-        <v>5701494</v>
+        <v>6227475</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="D684" t="n">
-        <v>1762160</v>
+        <v>1932448</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D685" t="n">
-        <v>546774</v>
+        <v>676109</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33262,10 +33262,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D686" t="n">
-        <v>131816</v>
+        <v>153316</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2770</v>
+        <v>2826</v>
       </c>
       <c r="D688" t="n">
-        <v>3988841</v>
+        <v>4209243</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1190</v>
+        <v>1209</v>
       </c>
       <c r="D689" t="n">
-        <v>1956661</v>
+        <v>2073371</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3179</v>
+        <v>3251</v>
       </c>
       <c r="D690" t="n">
-        <v>5383037</v>
+        <v>5882719</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="D691" t="n">
-        <v>1905042</v>
+        <v>2050686</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D692" t="n">
-        <v>545816</v>
+        <v>603356</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D693" t="n">
-        <v>128658</v>
+        <v>150158</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33646,10 +33646,10 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D694" t="n">
-        <v>39865</v>
+        <v>41537</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="D695" t="n">
-        <v>1445988</v>
+        <v>1503985</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2007</v>
+        <v>2052</v>
       </c>
       <c r="D696" t="n">
-        <v>3347255</v>
+        <v>3636960</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>5280</v>
+        <v>5403</v>
       </c>
       <c r="D697" t="n">
-        <v>9150765</v>
+        <v>10000854</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1796</v>
+        <v>1842</v>
       </c>
       <c r="D698" t="n">
-        <v>3380484</v>
+        <v>3818031</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D699" t="n">
-        <v>975174</v>
+        <v>1062850</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D700" t="n">
-        <v>316306</v>
+        <v>366306</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1657</v>
+        <v>1689</v>
       </c>
       <c r="D702" t="n">
-        <v>2223825</v>
+        <v>2335370</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>4076</v>
+        <v>4169</v>
       </c>
       <c r="D703" t="n">
-        <v>6923094</v>
+        <v>7473089</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>8019</v>
+        <v>8183</v>
       </c>
       <c r="D704" t="n">
-        <v>14011756</v>
+        <v>15267585</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3065</v>
+        <v>3138</v>
       </c>
       <c r="D705" t="n">
-        <v>5951979</v>
+        <v>6572387</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="D706" t="n">
-        <v>1367150</v>
+        <v>1495150</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D707" t="n">
-        <v>430629</v>
+        <v>499964</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D708" t="n">
-        <v>59458</v>
+        <v>69458</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>2458</v>
+        <v>2492</v>
       </c>
       <c r="D710" t="n">
-        <v>3432492</v>
+        <v>3530878</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1926</v>
+        <v>1957</v>
       </c>
       <c r="D711" t="n">
-        <v>3142099</v>
+        <v>3260674</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>3575</v>
+        <v>3644</v>
       </c>
       <c r="D712" t="n">
-        <v>6162843</v>
+        <v>6648484</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1047</v>
+        <v>1070</v>
       </c>
       <c r="D713" t="n">
-        <v>2000942</v>
+        <v>2170066</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D714" t="n">
-        <v>462355</v>
+        <v>504720</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D715" t="n">
-        <v>198075</v>
+        <v>228075</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34702,10 +34702,10 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D716" t="n">
-        <v>41795</v>
+        <v>61795</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -34750,10 +34750,10 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1455</v>
+        <v>1477</v>
       </c>
       <c r="D717" t="n">
-        <v>2012796</v>
+        <v>2099754</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>11991</v>
+        <v>12190</v>
       </c>
       <c r="D718" t="n">
-        <v>21700741</v>
+        <v>22776152</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>27699</v>
+        <v>28220</v>
       </c>
       <c r="D719" t="n">
-        <v>52451390</v>
+        <v>55981863</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>8605</v>
+        <v>8803</v>
       </c>
       <c r="D720" t="n">
-        <v>18778228</v>
+        <v>20373661</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>2678</v>
+        <v>2749</v>
       </c>
       <c r="D721" t="n">
-        <v>6679167</v>
+        <v>7281141</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="D722" t="n">
-        <v>2816237</v>
+        <v>3118917</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D723" t="n">
-        <v>598292</v>
+        <v>658292</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D724" t="n">
-        <v>37500</v>
+        <v>47500</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35134,10 +35134,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>9495</v>
+        <v>9641</v>
       </c>
       <c r="D725" t="n">
-        <v>13987622</v>
+        <v>14449573</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>14105</v>
+        <v>14323</v>
       </c>
       <c r="D726" t="n">
-        <v>24743516</v>
+        <v>25969428</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>38315</v>
+        <v>38950</v>
       </c>
       <c r="D727" t="n">
-        <v>71198097</v>
+        <v>75553647</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>12688</v>
+        <v>12959</v>
       </c>
       <c r="D728" t="n">
-        <v>27621739</v>
+        <v>30016999</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3675</v>
+        <v>3755</v>
       </c>
       <c r="D729" t="n">
-        <v>8725686</v>
+        <v>9398042</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1251</v>
+        <v>1282</v>
       </c>
       <c r="D730" t="n">
-        <v>3793392</v>
+        <v>4067724</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D731" t="n">
-        <v>718245</v>
+        <v>768245</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>11763</v>
+        <v>11947</v>
       </c>
       <c r="D733" t="n">
-        <v>16821841</v>
+        <v>17347780</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1695</v>
+        <v>1724</v>
       </c>
       <c r="D734" t="n">
-        <v>2972684</v>
+        <v>3113879</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>3528</v>
+        <v>3613</v>
       </c>
       <c r="D735" t="n">
-        <v>6750224</v>
+        <v>7313298</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35662,10 +35662,10 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1400</v>
+        <v>1423</v>
       </c>
       <c r="D736" t="n">
-        <v>3040736</v>
+        <v>3236947</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -35710,10 +35710,10 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D737" t="n">
-        <v>1037769</v>
+        <v>1148435</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -35758,10 +35758,10 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D738" t="n">
-        <v>416766</v>
+        <v>476766</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -35854,10 +35854,10 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>2487</v>
+        <v>2515</v>
       </c>
       <c r="D740" t="n">
-        <v>3588587</v>
+        <v>3687367</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>11576</v>
+        <v>11799</v>
       </c>
       <c r="D741" t="n">
-        <v>19569071</v>
+        <v>20672913</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35950,10 +35950,10 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>21615</v>
+        <v>22094</v>
       </c>
       <c r="D742" t="n">
-        <v>38998621</v>
+        <v>42141213</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>6092</v>
+        <v>6218</v>
       </c>
       <c r="D743" t="n">
-        <v>12072264</v>
+        <v>13127778</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>1605</v>
+        <v>1652</v>
       </c>
       <c r="D744" t="n">
-        <v>3521306</v>
+        <v>3892298</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36094,10 +36094,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="D745" t="n">
-        <v>1032253</v>
+        <v>1171633</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D746" t="n">
-        <v>268926</v>
+        <v>319592</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36238,10 +36238,10 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>6767</v>
+        <v>6877</v>
       </c>
       <c r="D748" t="n">
-        <v>9630148</v>
+        <v>9955870</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -36286,10 +36286,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>5119</v>
+        <v>5202</v>
       </c>
       <c r="D749" t="n">
-        <v>8950708</v>
+        <v>9374766</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>12547</v>
+        <v>12775</v>
       </c>
       <c r="D750" t="n">
-        <v>22984039</v>
+        <v>24594351</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36382,10 +36382,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3502</v>
+        <v>3579</v>
       </c>
       <c r="D751" t="n">
-        <v>7096228</v>
+        <v>7733800</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="D752" t="n">
-        <v>1934010</v>
+        <v>2026842</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36478,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D753" t="n">
-        <v>736112</v>
+        <v>846112</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D754" t="n">
-        <v>112494</v>
+        <v>132494</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>3867</v>
+        <v>3919</v>
       </c>
       <c r="D755" t="n">
-        <v>5364216</v>
+        <v>5507822</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
